--- a/data/trans_orig/IP1009-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C58A14-DC35-4B4E-AF70-F40DEEAF6CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E6468D-A7F6-44DC-8EDB-E8B061F226DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE22B68B-44BE-41F7-BB43-C17E000610D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{374AA79E-5893-44C4-A671-C8847D277C79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="129">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -124,163 +124,157 @@
     <t>0,43%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -304,7 +298,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -316,7 +310,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -328,7 +322,7 @@
     <t>99,96%</t>
   </si>
   <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -352,109 +346,85 @@
     <t>0,55%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -866,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB049B33-F86A-4A93-8BED-4DD8D046C575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C241A-36AC-4503-A8BB-45E2F64D0333}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1297,10 +1267,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1309,13 +1279,13 @@
         <v>448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1324,10 +1294,10 @@
         <v>2519</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -1345,13 +1315,13 @@
         <v>474919</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>627</v>
@@ -1360,10 +1330,10 @@
         <v>415639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -1375,13 +1345,13 @@
         <v>890559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1455,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1464,13 +1434,13 @@
         <v>634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1479,13 +1449,13 @@
         <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1515,10 +1485,10 @@
         <v>173432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1530,10 +1500,10 @@
         <v>331571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1604,13 +1574,13 @@
         <v>2072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1619,13 +1589,13 @@
         <v>1081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1634,13 +1604,13 @@
         <v>3153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1625,13 @@
         <v>720628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1670,10 +1640,10 @@
         <v>679940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1685,13 +1655,13 @@
         <v>1400568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,7 +1717,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F98E34-0CC4-451A-8A3B-0D9F26E5D701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA193CEE-3893-4A91-BC5F-78B8307C79EB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1784,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2046,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2061,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2070,13 +2040,13 @@
         <v>665</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2109,7 +2079,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2121,10 +2091,10 @@
         <v>174760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2195,13 +2165,13 @@
         <v>619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2210,13 +2180,13 @@
         <v>637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2225,13 +2195,13 @@
         <v>1257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,10 +2216,10 @@
         <v>491785</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2261,10 +2231,10 @@
         <v>449063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2276,10 +2246,10 @@
         <v>940846</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2338,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2356,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2371,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2386,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2419,7 +2389,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2434,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2505,13 +2475,13 @@
         <v>619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2520,13 +2490,13 @@
         <v>1303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2535,13 +2505,13 @@
         <v>1922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2526,10 @@
         <v>747523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2571,10 +2541,10 @@
         <v>705625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2586,13 +2556,13 @@
         <v>1453148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2618,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FBE438-4B00-4E2E-B292-F42F1215155B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8BD387-795D-425B-809E-4E65B1B3A5E8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2935,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2950,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2965,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2998,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3013,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3084,13 +3054,13 @@
         <v>2702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3099,13 +3069,13 @@
         <v>1832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3114,13 +3084,13 @@
         <v>4534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3105,13 @@
         <v>486033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>711</v>
@@ -3150,13 +3120,13 @@
         <v>470458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>1402</v>
@@ -3165,13 +3135,13 @@
         <v>956491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3197,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3245,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3254,13 +3224,13 @@
         <v>753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3269,13 +3239,13 @@
         <v>753</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3305,10 +3275,10 @@
         <v>171950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3320,10 +3290,10 @@
         <v>359444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3394,13 +3364,13 @@
         <v>2702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3409,13 +3379,13 @@
         <v>2585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3424,13 +3394,13 @@
         <v>5287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3415,13 @@
         <v>742142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>1057</v>
@@ -3460,13 +3430,13 @@
         <v>701786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="7">
         <v>2118</v>
@@ -3475,13 +3445,13 @@
         <v>1443928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3507,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1009-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1009-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E6468D-A7F6-44DC-8EDB-E8B061F226DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E6F9F4-04DC-4748-BB15-26E4D742338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{374AA79E-5893-44C4-A671-C8847D277C79}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3908D5-E191-4EA8-A54F-544EE8EB75C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
   <si>
     <t>Menores según si padecen transtornos intestinales crónicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,46 +94,34 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -139,85 +130,100 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -226,205 +232,199 @@
     <t>Menores según si padecen transtornos intestinales crónicos en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,29%</t>
+  </si>
+  <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen transtornos intestinales crónicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C241A-36AC-4503-A8BB-45E2F64D0333}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018735C2-E003-4E17-92F7-BBA7F1150A21}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -971,12 +971,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -994,56 +996,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1052,151 +1056,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>86844</v>
+        <v>415639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>716</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>474919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>1343</v>
       </c>
       <c r="N8" s="7">
-        <v>177712</v>
+        <v>890559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,153 +1211,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2072</v>
+        <v>634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>448</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>634</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2519</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>716</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>474919</v>
+        <v>173432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>415639</v>
+        <v>158138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1343</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>890559</v>
+        <v>331571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,153 +1366,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>634</v>
+        <v>2072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>634</v>
+        <v>3153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>158138</v>
+        <v>679940</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>253</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="7">
-        <v>173432</v>
+        <v>719902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2098</v>
       </c>
       <c r="N14" s="7">
-        <v>331571</v>
+        <v>1399842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,216 +1521,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2072</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1081</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3153</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D17" s="7">
-        <v>720628</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679940</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1400568</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1737,8 +1587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA193CEE-3893-4A91-BC5F-78B8307C79EB}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43924EF-7E30-4D67-8BD0-26A169FAD88A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1754,7 +1604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1855,96 +1705,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,151 +1807,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>665</v>
+        <v>1257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>83537</v>
+        <v>449063</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>132</v>
+        <v>704</v>
       </c>
       <c r="I8" s="7">
-        <v>91224</v>
+        <v>491785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1354</v>
       </c>
       <c r="N8" s="7">
-        <v>174760</v>
+        <v>940846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,153 +1962,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>637</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1257</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>704</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>491785</v>
+        <v>165340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>449063</v>
+        <v>171561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1354</v>
+        <v>477</v>
       </c>
       <c r="N11" s="7">
-        <v>940846</v>
+        <v>336901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,153 +2117,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>705625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>234</v>
+        <v>1064</v>
       </c>
       <c r="I14" s="7">
-        <v>165340</v>
+        <v>746882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>477</v>
+        <v>2080</v>
       </c>
       <c r="N14" s="7">
-        <v>336901</v>
+        <v>1452507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,216 +2272,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>619</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1922</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D17" s="7">
-        <v>747523</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705625</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2081</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1453148</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2638,8 +2338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8BD387-795D-425B-809E-4E65B1B3A5E8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8695CDD1-626F-40C8-A1B1-BADF6A915D91}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2655,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2758,86 +2458,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,147 +2558,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>711</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>470458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>691</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>486033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1402</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>956491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,153 +2713,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2702</v>
+        <v>753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1832</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4534</v>
+        <v>753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>691</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>486033</v>
+        <v>171950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>711</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>470458</v>
+        <v>187495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1402</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>956491</v>
+        <v>359444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,153 +2868,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>753</v>
+        <v>2702</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>753</v>
+        <v>5287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>701786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
-        <v>257</v>
+        <v>1061</v>
       </c>
       <c r="I14" s="7">
-        <v>171950</v>
+        <v>742142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>2118</v>
       </c>
       <c r="N14" s="7">
-        <v>359444</v>
+        <v>1443928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,216 +3023,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2702</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2585</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5287</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742142</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>701786</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1443928</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
